--- a/seleccion.xlsx
+++ b/seleccion.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlara\OneDrive\Documentos\GitHub\BicisV3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{4FE40004-844D-443D-920E-7AFDE476D0C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3941418C-D690-4CD4-AA83-1A8E3B472479}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="1680" windowWidth="22812" windowHeight="12192" xr2:uid="{62D8A3CB-420E-4BA7-9DCF-A675E3D33D30}"/>
+    <workbookView xWindow="21516" yWindow="3228" windowWidth="2388" windowHeight="564" activeTab="1" xr2:uid="{62D8A3CB-420E-4BA7-9DCF-A675E3D33D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -60,8 +61,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -84,16 +97,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB913364-8C0B-4DD7-9D38-14CB9355C965}">
   <dimension ref="A3:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -1529,4 +1703,400 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE758015-6D05-433B-B524-2F39F2F834CC}">
+  <dimension ref="A2:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16" width="3.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8">
+        <v>9</v>
+      </c>
+      <c r="K2" s="8">
+        <v>10</v>
+      </c>
+      <c r="L2" s="8">
+        <v>11</v>
+      </c>
+      <c r="M2" s="8">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8">
+        <v>13</v>
+      </c>
+      <c r="O2" s="8">
+        <v>14</v>
+      </c>
+      <c r="P2" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="18"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="18"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="18"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="18"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15">
+        <v>5</v>
+      </c>
+      <c r="G17" s="17">
+        <v>6</v>
+      </c>
+      <c r="H17" s="17">
+        <v>7</v>
+      </c>
+      <c r="I17" s="17">
+        <v>8</v>
+      </c>
+      <c r="J17" s="17">
+        <v>9</v>
+      </c>
+      <c r="K17" s="17">
+        <v>10</v>
+      </c>
+      <c r="L17" s="17">
+        <v>11</v>
+      </c>
+      <c r="M17" s="17">
+        <v>12</v>
+      </c>
+      <c r="N17" s="17">
+        <v>13</v>
+      </c>
+      <c r="O17" s="17">
+        <v>14</v>
+      </c>
+      <c r="P17" s="19">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>